--- a/Алгоритмы сортировки.xlsx
+++ b/Алгоритмы сортировки.xlsx
@@ -6,14 +6,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
-  <si>
-    <t>Table 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+  <si>
+    <t>Алгоритмы сортировки с квадратичным временем</t>
   </si>
   <si>
     <t>Кол-во эл-ов/Алгоритм</t>
@@ -35,7 +36,7 @@
       <rPr>
         <b val="1"/>
         <sz val="11"/>
-        <color indexed="12"/>
+        <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">
@@ -461,6 +462,36 @@
   </si>
   <si>
     <t>5535.0461490005255</t>
+  </si>
+  <si>
+    <t>Алгоритмы сортировки с квазилинейным и линейным временем</t>
+  </si>
+  <si>
+    <t>MergeSort</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>RadixSort 1</t>
+  </si>
+  <si>
+    <t>RadixSort 16</t>
+  </si>
+  <si>
+    <t>18475.475740000606</t>
+  </si>
+  <si>
+    <t>32178.743645995855</t>
+  </si>
+  <si>
+    <t>59444.63033899665</t>
+  </si>
+  <si>
+    <t>8052.270842000842</t>
+  </si>
+  <si>
+    <t>Для сортировки бинарного набора данных из 10 миллионов 16-битных чисел самым эффективным оказался алгоритм с линейным временем работы - поразрядная сортировка с максимальным разрядом (1 разряд == 16 символов “0” и “1”). Однако, если выбирать для этого алгоритма меньшую разрядность, например 1 (1 разряд == 1 символ), то время его работы существенно увеличивается и даже уступает алгоритмам с квазилинейным временем работы - сортировке слиянием и быстрой сортировке.</t>
   </si>
 </sst>
 </file>
@@ -470,13 +501,24 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -496,11 +538,11 @@
     <font>
       <b val="1"/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,12 +557,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -532,6 +592,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -545,7 +627,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -554,7 +636,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,43 +645,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,28 +675,163 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,63 +841,102 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,10 +955,16 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffd4d4d4"/>
+      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffd4d4d4"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -735,10 +982,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -915,11 +1162,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -928,34 +1178,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1203,12 +1453,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1499,7 +1749,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1777,20 +2027,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3672" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.8906" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.2656" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3516" style="1" customWidth="1"/>
     <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1798,669 +2046,669 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="34.2" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" t="s" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="D5" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>100</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="D6" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="E6" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" t="s" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>1000</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" t="s" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D8" t="s" s="10">
+      <c r="D8" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="E8" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="F8" t="s" s="10">
+      <c r="F8" t="s" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="D9" t="s" s="10">
+      <c r="D9" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="E9" t="s" s="10">
+      <c r="E9" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="F9" t="s" s="10">
+      <c r="F9" t="s" s="12">
         <v>39</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="10">
+      <c r="D10" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" t="s" s="10">
+      <c r="E10" s="14"/>
+      <c r="F10" t="s" s="12">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" t="s" s="10">
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" t="s" s="12">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" t="s" s="15">
+      <c r="A12" s="16"/>
+      <c r="B12" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>1</v>
       </c>
-      <c r="B13" t="s" s="9">
+      <c r="B13" t="s" s="11">
         <v>46</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C13" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="D13" t="s" s="10">
+      <c r="D13" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="E13" t="s" s="10">
+      <c r="E13" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="F13" t="s" s="10">
+      <c r="F13" t="s" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="D14" t="s" s="10">
+      <c r="D14" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="E14" t="s" s="10">
+      <c r="E14" t="s" s="12">
         <v>54</v>
       </c>
-      <c r="F14" t="s" s="10">
+      <c r="F14" t="s" s="12">
         <v>55</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="10">
         <v>100</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="D15" t="s" s="10">
+      <c r="D15" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="E15" t="s" s="10">
+      <c r="E15" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="F15" t="s" s="10">
+      <c r="F15" t="s" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>1000</v>
       </c>
-      <c r="B16" t="s" s="9">
+      <c r="B16" t="s" s="11">
         <v>61</v>
       </c>
-      <c r="C16" t="s" s="10">
+      <c r="C16" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="D16" t="s" s="10">
+      <c r="D16" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="E16" t="s" s="10">
+      <c r="E16" t="s" s="12">
         <v>64</v>
       </c>
-      <c r="F16" t="s" s="10">
+      <c r="F16" t="s" s="12">
         <v>65</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B17" t="s" s="9">
+      <c r="B17" t="s" s="11">
         <v>66</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="D17" t="s" s="10">
+      <c r="D17" t="s" s="12">
         <v>68</v>
       </c>
-      <c r="E17" t="s" s="10">
+      <c r="E17" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="F17" t="s" s="10">
+      <c r="F17" t="s" s="12">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="9">
+      <c r="B18" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="C18" t="s" s="10">
+      <c r="C18" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="D18" t="s" s="10">
+      <c r="D18" t="s" s="12">
         <v>73</v>
       </c>
-      <c r="E18" t="s" s="10">
+      <c r="E18" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="F18" t="s" s="10">
+      <c r="F18" t="s" s="12">
         <v>75</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="A19" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="D19" t="s" s="10">
+      <c r="D19" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" t="s" s="10">
+      <c r="E19" s="14"/>
+      <c r="F19" t="s" s="12">
         <v>76</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="A20" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" t="s" s="10">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" t="s" s="12">
         <v>77</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" t="s" s="15">
+      <c r="A21" s="16"/>
+      <c r="B21" t="s" s="17">
         <v>78</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="10">
         <v>1</v>
       </c>
-      <c r="B22" t="s" s="9">
+      <c r="B22" t="s" s="11">
         <v>79</v>
       </c>
-      <c r="C22" t="s" s="10">
+      <c r="C22" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="D22" t="s" s="10">
+      <c r="D22" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="E22" t="s" s="10">
+      <c r="E22" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="F22" t="s" s="10">
+      <c r="F22" t="s" s="12">
         <v>83</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="10">
         <v>10</v>
       </c>
-      <c r="B23" t="s" s="9">
+      <c r="B23" t="s" s="11">
         <v>84</v>
       </c>
-      <c r="C23" t="s" s="10">
+      <c r="C23" t="s" s="12">
         <v>85</v>
       </c>
-      <c r="D23" t="s" s="10">
+      <c r="D23" t="s" s="12">
         <v>86</v>
       </c>
-      <c r="E23" t="s" s="10">
+      <c r="E23" t="s" s="12">
         <v>87</v>
       </c>
-      <c r="F23" t="s" s="10">
+      <c r="F23" t="s" s="12">
         <v>88</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="8">
+      <c r="A24" s="10">
         <v>100</v>
       </c>
-      <c r="B24" t="s" s="9">
+      <c r="B24" t="s" s="11">
         <v>89</v>
       </c>
-      <c r="C24" t="s" s="10">
+      <c r="C24" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="D24" t="s" s="10">
+      <c r="D24" t="s" s="12">
         <v>91</v>
       </c>
-      <c r="E24" t="s" s="10">
+      <c r="E24" t="s" s="12">
         <v>92</v>
       </c>
-      <c r="F24" t="s" s="10">
+      <c r="F24" t="s" s="12">
         <v>93</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="8">
+      <c r="A25" s="10">
         <v>1000</v>
       </c>
-      <c r="B25" t="s" s="9">
+      <c r="B25" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="C25" t="s" s="10">
+      <c r="C25" t="s" s="12">
         <v>95</v>
       </c>
-      <c r="D25" t="s" s="10">
+      <c r="D25" t="s" s="12">
         <v>96</v>
       </c>
-      <c r="E25" t="s" s="10">
+      <c r="E25" t="s" s="12">
         <v>97</v>
       </c>
-      <c r="F25" t="s" s="10">
+      <c r="F25" t="s" s="12">
         <v>98</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="A26" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B26" t="s" s="9">
+      <c r="B26" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="C26" t="s" s="10">
+      <c r="C26" t="s" s="12">
         <v>100</v>
       </c>
-      <c r="D26" t="s" s="10">
+      <c r="D26" t="s" s="12">
         <v>101</v>
       </c>
-      <c r="E26" t="s" s="10">
+      <c r="E26" t="s" s="12">
         <v>102</v>
       </c>
-      <c r="F26" t="s" s="10">
+      <c r="F26" t="s" s="12">
         <v>103</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="A27" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B27" t="s" s="9">
+      <c r="B27" t="s" s="11">
         <v>104</v>
       </c>
-      <c r="C27" t="s" s="10">
+      <c r="C27" t="s" s="12">
         <v>105</v>
       </c>
-      <c r="D27" t="s" s="10">
+      <c r="D27" t="s" s="12">
         <v>106</v>
       </c>
-      <c r="E27" t="s" s="10">
+      <c r="E27" t="s" s="12">
         <v>107</v>
       </c>
-      <c r="F27" t="s" s="10">
+      <c r="F27" t="s" s="12">
         <v>108</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="A28" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B28" t="s" s="9">
+      <c r="B28" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="C28" t="s" s="10">
+      <c r="C28" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="D28" t="s" s="10">
+      <c r="D28" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" t="s" s="10">
+      <c r="E28" s="14"/>
+      <c r="F28" t="s" s="12">
         <v>109</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="A29" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" t="s" s="10">
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" t="s" s="12">
         <v>110</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" t="s" s="15">
+      <c r="A30" s="16"/>
+      <c r="B30" t="s" s="17">
         <v>111</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="8">
+      <c r="A31" s="10">
         <v>1</v>
       </c>
-      <c r="B31" t="s" s="16">
+      <c r="B31" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="C31" t="s" s="17">
+      <c r="C31" t="s" s="19">
         <v>113</v>
       </c>
-      <c r="D31" t="s" s="17">
+      <c r="D31" t="s" s="19">
         <v>114</v>
       </c>
-      <c r="E31" t="s" s="17">
+      <c r="E31" t="s" s="19">
         <v>115</v>
       </c>
-      <c r="F31" t="s" s="17">
+      <c r="F31" t="s" s="19">
         <v>116</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="8">
+      <c r="A32" s="10">
         <v>10</v>
       </c>
-      <c r="B32" t="s" s="16">
+      <c r="B32" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="C32" t="s" s="17">
+      <c r="C32" t="s" s="19">
         <v>118</v>
       </c>
-      <c r="D32" t="s" s="17">
+      <c r="D32" t="s" s="19">
         <v>119</v>
       </c>
-      <c r="E32" t="s" s="17">
+      <c r="E32" t="s" s="19">
         <v>120</v>
       </c>
-      <c r="F32" t="s" s="17">
+      <c r="F32" t="s" s="19">
         <v>121</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="8">
+      <c r="A33" s="10">
         <v>100</v>
       </c>
-      <c r="B33" t="s" s="16">
+      <c r="B33" t="s" s="18">
         <v>122</v>
       </c>
-      <c r="C33" t="s" s="17">
+      <c r="C33" t="s" s="19">
         <v>123</v>
       </c>
-      <c r="D33" t="s" s="17">
+      <c r="D33" t="s" s="19">
         <v>124</v>
       </c>
-      <c r="E33" t="s" s="17">
+      <c r="E33" t="s" s="19">
         <v>125</v>
       </c>
-      <c r="F33" t="s" s="17">
+      <c r="F33" t="s" s="19">
         <v>126</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="8">
+      <c r="A34" s="10">
         <v>1000</v>
       </c>
-      <c r="B34" t="s" s="16">
+      <c r="B34" t="s" s="18">
         <v>127</v>
       </c>
-      <c r="C34" t="s" s="17">
+      <c r="C34" t="s" s="19">
         <v>128</v>
       </c>
-      <c r="D34" t="s" s="17">
+      <c r="D34" t="s" s="19">
         <v>129</v>
       </c>
-      <c r="E34" t="s" s="17">
+      <c r="E34" t="s" s="19">
         <v>130</v>
       </c>
-      <c r="F34" t="s" s="17">
+      <c r="F34" t="s" s="19">
         <v>131</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="11">
+      <c r="A35" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B35" t="s" s="16">
+      <c r="B35" t="s" s="18">
         <v>132</v>
       </c>
-      <c r="C35" t="s" s="17">
+      <c r="C35" t="s" s="19">
         <v>133</v>
       </c>
-      <c r="D35" t="s" s="17">
+      <c r="D35" t="s" s="19">
         <v>134</v>
       </c>
-      <c r="E35" t="s" s="17">
+      <c r="E35" t="s" s="19">
         <v>135</v>
       </c>
-      <c r="F35" t="s" s="17">
+      <c r="F35" t="s" s="19">
         <v>136</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="11">
+      <c r="A36" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B36" t="s" s="16">
+      <c r="B36" t="s" s="18">
         <v>137</v>
       </c>
-      <c r="C36" t="s" s="17">
+      <c r="C36" t="s" s="19">
         <v>138</v>
       </c>
-      <c r="D36" t="s" s="17">
+      <c r="D36" t="s" s="19">
         <v>139</v>
       </c>
-      <c r="E36" t="s" s="17">
+      <c r="E36" t="s" s="19">
         <v>140</v>
       </c>
-      <c r="F36" t="s" s="17">
+      <c r="F36" t="s" s="19">
         <v>141</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="11">
+      <c r="A37" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B37" t="s" s="9">
+      <c r="B37" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="C37" t="s" s="10">
+      <c r="C37" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="D37" t="s" s="10">
+      <c r="D37" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" t="s" s="17">
+      <c r="E37" s="20"/>
+      <c r="F37" t="s" s="19">
         <v>142</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="11">
+      <c r="A38" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="18"/>
-      <c r="F38" t="s" s="17">
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="20"/>
+      <c r="F38" t="s" s="19">
         <v>143</v>
       </c>
     </row>
@@ -2478,4 +2726,136 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.4062" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.7891" style="21" customWidth="1"/>
+    <col min="4" max="5" width="16.3516" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.6" customHeight="1">
+      <c r="A1" t="s" s="22">
+        <v>144</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" t="s" s="24">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s" s="24">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s" s="24">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" t="s" s="25">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s" s="27">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" ht="14.05" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" t="s" s="31">
+        <v>153</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" ht="14.05" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:E11"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>